--- a/assets/info-auto模板.xlsx
+++ b/assets/info-auto模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="公司名称" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>名称</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t>对应ip</t>
-  </si>
-  <si>
-    <t>ander1023.bd7oxy.top</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>192.168.100.143</t>
-  </si>
-  <si>
-    <t>abc.123</t>
   </si>
   <si>
     <t>nali处理状态</t>
@@ -66,28 +54,10 @@
     <t>masscan处理状态</t>
   </si>
   <si>
-    <t>192.168.100.1</t>
-  </si>
-  <si>
-    <t>处理</t>
-  </si>
-  <si>
-    <t>192.168.100.1:22</t>
-  </si>
-  <si>
-    <t>192.168.100.1:53</t>
-  </si>
-  <si>
-    <t>192.168.100.1:80</t>
-  </si>
-  <si>
-    <t>192.168.100.143:22</t>
-  </si>
-  <si>
     <t>httpx处理状态</t>
   </si>
   <si>
-    <t>ander1023.bd7oxy.top:22</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -729,17 +699,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1303,7 +1264,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1316,45 +1277,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1368,21 +1307,21 @@
   <sheetPr/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1394,36 +1333,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1435,37 +1358,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1477,68 +1380,25 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1552,18 +1412,18 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
